--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Plg-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Plg-Itgb1.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>1.398051245637334</v>
+        <v>2.375279787001778</v>
       </c>
       <c r="R2">
-        <v>12.582461210736</v>
+        <v>21.377518083016</v>
       </c>
       <c r="S2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="T2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
         <v>2.303169439146223</v>
@@ -635,10 +635,10 @@
         <v>20.728524952316</v>
       </c>
       <c r="S3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="T3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>2.038478435035556</v>
+        <v>2.345377916546667</v>
       </c>
       <c r="R4">
-        <v>18.34630591532</v>
+        <v>21.10840124892</v>
       </c>
       <c r="S4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="T4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>0.9240033897955559</v>
+        <v>0.9357396049737779</v>
       </c>
       <c r="R5">
-        <v>8.316030508160003</v>
+        <v>8.421656444764</v>
       </c>
       <c r="S5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="T5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
     </row>
   </sheetData>
